--- a/Открытие страницы товара в Яндекс Маркет.xlsx
+++ b/Открытие страницы товара в Яндекс Маркет.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C61536B1-27B6-461C-A5E6-44B42DB54C15}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -18,8 +19,118 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Автор</author>
+  </authors>
+  <commentList>
+    <comment ref="D10" authorId="0" shapeId="0" xr:uid="{6CCA39E7-76AE-43F3-81CB-D0917C1DB934}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Автор:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+То что у тебя стоит в TestData должно быть в Expected results. TestData это если в рамках именно данного тест-кейса было бы KD65AF9 для третьего шага</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B15" authorId="0" shapeId="0" xr:uid="{56C1D50E-311C-44A4-B403-801A688E0C56}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Автор:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+А если поиск сломан? А функционал страницы товара работает?</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B21" authorId="0" shapeId="0" xr:uid="{53FD3C0E-5478-4F81-801C-17DA85A7F446}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Автор:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Это уже тестирование перехода в магазин, в котором данный товар есть в наличии, а не просто проверить открытие страницы с товаром</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D26" authorId="0" shapeId="0" xr:uid="{34900699-F9DD-4D53-A18F-80393B4DDA48}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Автор:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+а если на внешнем сайте какие-то проблемы? Ну допустим он работает, но кто-то его взломал и данные не верны?</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
   <si>
     <t>TEST CASE №</t>
   </si>
@@ -124,13 +235,16 @@
   </si>
   <si>
     <t>Ввести в поиске яндекс маркет любой товар, проверить открытие страницы с товаром</t>
+  </si>
+  <si>
+    <t>Мало тест-кейсов, я говорил что хотя бы 2-3, никак не один.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -153,13 +267,42 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="14">
@@ -320,7 +463,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
@@ -405,6 +548,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
@@ -685,11 +842,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:I41"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A2:I41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4:G6"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -701,6 +858,11 @@
     <col min="9" max="9" width="13.7109375" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="2" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B2" s="45" t="s">
+        <v>35</v>
+      </c>
+    </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
         <v>0</v>
@@ -790,12 +952,12 @@
         <v>2</v>
       </c>
       <c r="C10" s="37"/>
-      <c r="D10" s="27" t="s">
+      <c r="D10" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="E10" s="28"/>
-      <c r="F10" s="28"/>
-      <c r="G10" s="29"/>
+      <c r="E10" s="43"/>
+      <c r="F10" s="43"/>
+      <c r="G10" s="44"/>
       <c r="H10" s="27" t="s">
         <v>4</v>
       </c>
@@ -856,10 +1018,10 @@
       <c r="I14" s="21"/>
     </row>
     <row r="15" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="5" t="s">
+      <c r="B15" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="C15" s="6"/>
+      <c r="C15" s="39"/>
       <c r="D15" s="5" t="s">
         <v>9</v>
       </c>
@@ -872,10 +1034,10 @@
       <c r="I15" s="26"/>
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B16" s="5" t="s">
+      <c r="B16" s="38" t="s">
         <v>16</v>
       </c>
-      <c r="C16" s="6"/>
+      <c r="C16" s="39"/>
       <c r="D16" s="5"/>
       <c r="E16" s="7"/>
       <c r="F16" s="7"/>
@@ -934,10 +1096,10 @@
       <c r="I20" s="6"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B21" s="8" t="s">
+      <c r="B21" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="C21" s="7"/>
+      <c r="C21" s="40"/>
       <c r="D21" s="8" t="s">
         <v>22</v>
       </c>
@@ -948,10 +1110,10 @@
       <c r="I21" s="6"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B22" s="8" t="s">
+      <c r="B22" s="38" t="s">
         <v>21</v>
       </c>
-      <c r="C22" s="6"/>
+      <c r="C22" s="39"/>
       <c r="D22" s="8" t="s">
         <v>27</v>
       </c>
@@ -962,10 +1124,10 @@
       <c r="I22" s="6"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B23" s="8" t="s">
+      <c r="B23" s="38" t="s">
         <v>23</v>
       </c>
-      <c r="C23" s="6"/>
+      <c r="C23" s="39"/>
       <c r="D23" s="13"/>
       <c r="E23" s="7"/>
       <c r="F23" s="7"/>
@@ -974,10 +1136,10 @@
       <c r="I23" s="6"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B24" s="8" t="s">
+      <c r="B24" s="38" t="s">
         <v>25</v>
       </c>
-      <c r="C24" s="6"/>
+      <c r="C24" s="39"/>
       <c r="D24" s="8"/>
       <c r="G24" s="6"/>
       <c r="I24" s="6"/>
@@ -996,20 +1158,24 @@
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B26" s="8"/>
       <c r="C26" s="6"/>
-      <c r="D26" s="8" t="s">
+      <c r="D26" s="38" t="s">
         <v>29</v>
       </c>
-      <c r="G26" s="6"/>
+      <c r="E26" s="41"/>
+      <c r="F26" s="41"/>
+      <c r="G26" s="39"/>
       <c r="I26" s="6"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="6"/>
       <c r="B27" s="14"/>
       <c r="C27" s="6"/>
-      <c r="D27" s="8" t="s">
+      <c r="D27" s="38" t="s">
         <v>30</v>
       </c>
-      <c r="G27" s="6"/>
+      <c r="E27" s="41"/>
+      <c r="F27" s="41"/>
+      <c r="G27" s="39"/>
       <c r="I27" s="6"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
@@ -1182,5 +1348,6 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>